--- a/Subjects/subject 1/audio_data_80sentences.xlsx
+++ b/Subjects/subject 1/audio_data_80sentences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer\Documents\GitHub\stp-project\Subjects\subject 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C815BD-C245-4C65-B377-36551D2D64E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00562E04-CD64-49D6-BE1C-A24D836E60A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
@@ -1029,7 +1029,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
@@ -1049,7 +1049,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1069,7 +1069,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1109,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1129,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1149,7 +1149,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1169,7 +1169,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1209,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1229,7 +1229,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1249,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1269,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1289,7 +1289,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1309,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -1329,7 +1329,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>9</v>
@@ -1349,7 +1349,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -1369,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -1389,7 +1389,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -1809,7 +1809,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>30</v>
@@ -1829,7 +1829,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -1849,7 +1849,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>6</v>
@@ -1869,7 +1869,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>6</v>
@@ -1889,7 +1889,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>6</v>
@@ -1909,7 +1909,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
@@ -1929,7 +1929,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>6</v>
@@ -1949,7 +1949,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>6</v>
@@ -1969,7 +1969,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>6</v>
@@ -1989,7 +1989,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -2009,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>9</v>
@@ -2029,7 +2029,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>9</v>
@@ -2049,7 +2049,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>9</v>
@@ -2069,7 +2069,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>9</v>
@@ -2089,7 +2089,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>9</v>
@@ -2109,7 +2109,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>9</v>
@@ -2129,7 +2129,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
@@ -2169,7 +2169,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>9</v>
@@ -2189,7 +2189,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>11</v>
